--- a/data/pca/factorExposure/factorExposure_2013-03-21.xlsx
+++ b/data/pca/factorExposure/factorExposure_2013-03-21.xlsx
@@ -14,9 +14,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
   <si>
     <t>factor1</t>
+  </si>
+  <si>
+    <t>factor2</t>
+  </si>
+  <si>
+    <t>factor3</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -683,838 +689,1462 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B104"/>
+  <dimension ref="A1:D104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B2">
-        <v>-4.098366635750547e-05</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
+        <v>0.00207830732505993</v>
+      </c>
+      <c r="C2">
+        <v>-0.03398070731095021</v>
+      </c>
+      <c r="D2">
+        <v>-0.003404155824094043</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:2">
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B4">
-        <v>0.001536418917538674</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
+        <v>-0.005974601277110824</v>
+      </c>
+      <c r="C4">
+        <v>-0.08538456520729064</v>
+      </c>
+      <c r="D4">
+        <v>0.07966607982507114</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:2">
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B6">
-        <v>0.0003599271689225362</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
+        <v>-0.01350724390200708</v>
+      </c>
+      <c r="C6">
+        <v>-0.1133631167412634</v>
+      </c>
+      <c r="D6">
+        <v>0.03197183020740053</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B7">
-        <v>0.001783162221371716</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
+        <v>-0.004748565967763259</v>
+      </c>
+      <c r="C7">
+        <v>-0.05612811216862842</v>
+      </c>
+      <c r="D7">
+        <v>0.03138764719337548</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B8">
-        <v>0.0002324928005789167</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
+        <v>-0.005661663565899716</v>
+      </c>
+      <c r="C8">
+        <v>-0.03859245514931427</v>
+      </c>
+      <c r="D8">
+        <v>0.04004267941690474</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B9">
-        <v>0.003577007953343999</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
+        <v>-0.004079027169333733</v>
+      </c>
+      <c r="C9">
+        <v>-0.07130073746378372</v>
+      </c>
+      <c r="D9">
+        <v>0.07166097806410331</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B10">
-        <v>-0.004611830060766719</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
+        <v>-0.005189964123989164</v>
+      </c>
+      <c r="C10">
+        <v>-0.05885715359451286</v>
+      </c>
+      <c r="D10">
+        <v>-0.2022652316453105</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
       <c r="A11" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B11">
-        <v>0.00245273441674472</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
+        <v>-0.005316156548806877</v>
+      </c>
+      <c r="C11">
+        <v>-0.08108301627790267</v>
+      </c>
+      <c r="D11">
+        <v>0.05839992555487838</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
       <c r="A12" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B12">
-        <v>-0.0003657171429191346</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
+        <v>-0.003921898114135398</v>
+      </c>
+      <c r="C12">
+        <v>-0.06482269232729061</v>
+      </c>
+      <c r="D12">
+        <v>0.04496067271373066</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
       <c r="A13" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B13">
-        <v>-0.003665535926921668</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
+        <v>-0.0085014753196018</v>
+      </c>
+      <c r="C13">
+        <v>-0.06683174678554871</v>
+      </c>
+      <c r="D13">
+        <v>0.06701534742541632</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
       <c r="A14" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B14">
-        <v>0.0009762760842226323</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
+        <v>-0.001330015870858793</v>
+      </c>
+      <c r="C14">
+        <v>-0.04599667783115838</v>
+      </c>
+      <c r="D14">
+        <v>0.007571893975828098</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
       <c r="A15" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B15">
-        <v>0.0009744927998953354</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
+        <v>-0.005787783152523272</v>
+      </c>
+      <c r="C15">
+        <v>-0.04206566308707516</v>
+      </c>
+      <c r="D15">
+        <v>0.03102936160476906</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
       <c r="A16" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B16">
-        <v>0.001148169842662727</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
+        <v>-0.004919604691177635</v>
+      </c>
+      <c r="C16">
+        <v>-0.06667095273947848</v>
+      </c>
+      <c r="D16">
+        <v>0.04438350539430339</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
       <c r="A17" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:2">
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
       <c r="A18" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:2">
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
       <c r="A19" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:2">
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
       <c r="A20" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B20">
-        <v>-0.0004206014161084744</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
+        <v>-0.00877493475872626</v>
+      </c>
+      <c r="C20">
+        <v>-0.06819181130449427</v>
+      </c>
+      <c r="D20">
+        <v>0.0471823189405202</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
       <c r="A21" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B21">
-        <v>-0.005424258129116369</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
+        <v>-0.009799240181586354</v>
+      </c>
+      <c r="C21">
+        <v>-0.0229598786697351</v>
+      </c>
+      <c r="D21">
+        <v>0.0354980399874438</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
       <c r="A22" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B22">
-        <v>0.0181263895224503</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
+        <v>0.006971907826487406</v>
+      </c>
+      <c r="C22">
+        <v>-0.09477713643171612</v>
+      </c>
+      <c r="D22">
+        <v>0.100737578997137</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
       <c r="A23" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B23">
-        <v>0.01844675869360953</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
+        <v>0.006786920688947559</v>
+      </c>
+      <c r="C23">
+        <v>-0.09565657284322501</v>
+      </c>
+      <c r="D23">
+        <v>0.1011025960580329</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
       <c r="A24" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B24">
-        <v>0.00173353202620778</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
+        <v>-0.005055996351573752</v>
+      </c>
+      <c r="C24">
+        <v>-0.07598004602554931</v>
+      </c>
+      <c r="D24">
+        <v>0.0576579207927784</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
       <c r="A25" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B25">
-        <v>0.003518454324919759</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
+        <v>-0.002750193079454</v>
+      </c>
+      <c r="C25">
+        <v>-0.07886434581326324</v>
+      </c>
+      <c r="D25">
+        <v>0.06421730369307481</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
       <c r="A26" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B26">
-        <v>0.005863537589303576</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2">
+        <v>-0.003471194307128281</v>
+      </c>
+      <c r="C26">
+        <v>-0.04231148668693207</v>
+      </c>
+      <c r="D26">
+        <v>0.02503468949139593</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
       <c r="A27" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:2">
+      <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
       <c r="A28" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B28">
-        <v>0.004162074212479599</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2">
+        <v>0.001224283714445668</v>
+      </c>
+      <c r="C28">
+        <v>-0.1069252554275164</v>
+      </c>
+      <c r="D28">
+        <v>-0.3177818675296689</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
       <c r="A29" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B29">
-        <v>0.0007816667453295361</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2">
+        <v>-0.002974092767919381</v>
+      </c>
+      <c r="C29">
+        <v>-0.04883966626466101</v>
+      </c>
+      <c r="D29">
+        <v>0.003071754997707793</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
       <c r="A30" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B30">
-        <v>0.002896529014865856</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2">
+        <v>-0.008931057511244086</v>
+      </c>
+      <c r="C30">
+        <v>-0.1457104095742718</v>
+      </c>
+      <c r="D30">
+        <v>0.100148581700008</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
       <c r="A31" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B31">
-        <v>-0.0003869328806213266</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2">
+        <v>-0.006058620941200137</v>
+      </c>
+      <c r="C31">
+        <v>-0.04542755675444667</v>
+      </c>
+      <c r="D31">
+        <v>0.03220560707764413</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
       <c r="A32" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B32">
-        <v>0.0005414166556783823</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2">
+        <v>-0.003798262829506789</v>
+      </c>
+      <c r="C32">
+        <v>-0.04057561124816582</v>
+      </c>
+      <c r="D32">
+        <v>0.0237236324516548</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
       <c r="A33" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B33">
-        <v>0.002676829176892225</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2">
+        <v>-0.007926732562565033</v>
+      </c>
+      <c r="C33">
+        <v>-0.08727603328966099</v>
+      </c>
+      <c r="D33">
+        <v>0.07102118021245094</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
       <c r="A34" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B34">
-        <v>0.004231412794666306</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2">
+        <v>-0.003787181896869461</v>
+      </c>
+      <c r="C34">
+        <v>-0.05878700009916108</v>
+      </c>
+      <c r="D34">
+        <v>0.04823156158480955</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
       <c r="A35" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B35">
-        <v>0.002427140018247176</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2">
+        <v>-0.004693789935876387</v>
+      </c>
+      <c r="C35">
+        <v>-0.03952142298175571</v>
+      </c>
+      <c r="D35">
+        <v>0.01252353750894997</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
       <c r="A36" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B36">
-        <v>0.00396642399663582</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2">
+        <v>0.00141356928580896</v>
+      </c>
+      <c r="C36">
+        <v>-0.02513424757161755</v>
+      </c>
+      <c r="D36">
+        <v>0.01986985893055831</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
       <c r="A37" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:2">
+      <c r="C37">
+        <v>0</v>
+      </c>
+      <c r="D37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
       <c r="A38" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B38">
-        <v>-0.002294043614234645</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2">
+        <v>-0.009427383856373811</v>
+      </c>
+      <c r="C38">
+        <v>-0.03413323172754569</v>
+      </c>
+      <c r="D38">
+        <v>0.02198271078641717</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
       <c r="A39" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B39">
-        <v>0.01218673224794544</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2">
+        <v>0.001065846774987588</v>
+      </c>
+      <c r="C39">
+        <v>-0.1176791424449921</v>
+      </c>
+      <c r="D39">
+        <v>0.07126638651910587</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
       <c r="A40" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B40">
-        <v>0.009403687450740831</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2">
+        <v>-0.002056152599124323</v>
+      </c>
+      <c r="C40">
+        <v>-0.08842239044603192</v>
+      </c>
+      <c r="D40">
+        <v>0.01353900880284426</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
       <c r="A41" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B41">
-        <v>0.0001799575135691906</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2">
+        <v>-0.007144816905469796</v>
+      </c>
+      <c r="C41">
+        <v>-0.0378794333129743</v>
+      </c>
+      <c r="D41">
+        <v>0.03522426788756395</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
       <c r="A42" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:2">
+      <c r="C42">
+        <v>0</v>
+      </c>
+      <c r="D42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
       <c r="A43" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B43">
-        <v>0.003112804404423766</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2">
+        <v>-0.003497478684094276</v>
+      </c>
+      <c r="C43">
+        <v>-0.05179205809386297</v>
+      </c>
+      <c r="D43">
+        <v>0.02353796370236806</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
       <c r="A44" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B44">
-        <v>0.002622430259516006</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2">
+        <v>-0.003079682723637576</v>
+      </c>
+      <c r="C44">
+        <v>-0.1128907649155926</v>
+      </c>
+      <c r="D44">
+        <v>0.06992275785915364</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
       <c r="A45" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:2">
+      <c r="C45">
+        <v>0</v>
+      </c>
+      <c r="D45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
       <c r="A46" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B46">
-        <v>0.001463136454235462</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2">
+        <v>-0.002291879099776436</v>
+      </c>
+      <c r="C46">
+        <v>-0.03579541647994627</v>
+      </c>
+      <c r="D46">
+        <v>0.02653490162332168</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
       <c r="A47" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B47">
-        <v>-0.0002169533427284059</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2">
+        <v>-0.002647459699388449</v>
+      </c>
+      <c r="C47">
+        <v>-0.03785643002898675</v>
+      </c>
+      <c r="D47">
+        <v>0.0253161179318487</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
       <c r="A48" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B48">
-        <v>-0.003399571983358474</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2">
+        <v>-0.00636560019608518</v>
+      </c>
+      <c r="C48">
+        <v>-0.02916016280237691</v>
+      </c>
+      <c r="D48">
+        <v>0.03027788937939084</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
       <c r="A49" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B49">
-        <v>0.01322764188665916</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2">
+        <v>-0.01445637968215169</v>
+      </c>
+      <c r="C49">
+        <v>-0.1826203750810006</v>
+      </c>
+      <c r="D49">
+        <v>0.01168853023833769</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
       <c r="A50" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B50">
-        <v>0.001252436267493335</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2">
+        <v>-0.003491655691785479</v>
+      </c>
+      <c r="C50">
+        <v>-0.04416510899264613</v>
+      </c>
+      <c r="D50">
+        <v>0.03497489049214585</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
       <c r="A51" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B51">
-        <v>-0.0004113825884194309</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2">
+        <v>-0.004251722422139225</v>
+      </c>
+      <c r="C51">
+        <v>-0.02521067573692954</v>
+      </c>
+      <c r="D51">
+        <v>0.02030471869697837</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
       <c r="A52" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:2">
+      <c r="C52">
+        <v>0</v>
+      </c>
+      <c r="D52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
       <c r="A53" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B53">
-        <v>-0.001210009900774189</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2">
+        <v>-0.0201517783270759</v>
+      </c>
+      <c r="C53">
+        <v>-0.1695669683390434</v>
+      </c>
+      <c r="D53">
+        <v>0.03600633763909016</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
       <c r="A54" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B54">
-        <v>-0.001107275816327969</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2">
+        <v>-0.008652737277944923</v>
+      </c>
+      <c r="C54">
+        <v>-0.05622583536368277</v>
+      </c>
+      <c r="D54">
+        <v>0.0407258931425036</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
       <c r="A55" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B55">
-        <v>0.003469298852527703</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2">
+        <v>-0.009218359413168455</v>
+      </c>
+      <c r="C55">
+        <v>-0.1106826839106698</v>
+      </c>
+      <c r="D55">
+        <v>0.04264765799545008</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
       <c r="A56" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B56">
-        <v>-0.003902149806717514</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2">
+        <v>-0.01965781670825067</v>
+      </c>
+      <c r="C56">
+        <v>-0.1767396636514927</v>
+      </c>
+      <c r="D56">
+        <v>0.03591959552762988</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
       <c r="A57" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:2">
+      <c r="C57">
+        <v>0</v>
+      </c>
+      <c r="D57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
       <c r="A58" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B58">
-        <v>0.006897005459854923</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2">
+        <v>-0.01922390657655755</v>
+      </c>
+      <c r="C58">
+        <v>-0.108556084135766</v>
+      </c>
+      <c r="D58">
+        <v>0.05257610524451824</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
       <c r="A59" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B59">
-        <v>0.006165802080841813</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2">
+        <v>-0.008866253742692015</v>
+      </c>
+      <c r="C59">
+        <v>-0.1590003479334873</v>
+      </c>
+      <c r="D59">
+        <v>-0.3047988518646915</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
       <c r="A60" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B60">
-        <v>0.003614588209124416</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2">
+        <v>-0.02300650420771884</v>
+      </c>
+      <c r="C60">
+        <v>-0.2247151954024856</v>
+      </c>
+      <c r="D60">
+        <v>0.02055115240327657</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
       <c r="A61" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B61">
-        <v>0.01423689864847868</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2">
+        <v>0.002116765393974168</v>
+      </c>
+      <c r="C61">
+        <v>-0.09602750539239303</v>
+      </c>
+      <c r="D61">
+        <v>0.05565821705791019</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
       <c r="A62" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B62">
-        <v>-0.1699934083236142</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2">
+        <v>-0.1440814381243574</v>
+      </c>
+      <c r="C62">
+        <v>-0.08909092522952072</v>
+      </c>
+      <c r="D62">
+        <v>0.04604905047993683</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
       <c r="A63" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B63">
-        <v>0.0008011431813058728</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2">
+        <v>-0.00612320571352771</v>
+      </c>
+      <c r="C63">
+        <v>-0.05689988707247797</v>
+      </c>
+      <c r="D63">
+        <v>0.02455530149979547</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
       <c r="A64" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B64">
-        <v>0.004717424772702401</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2">
+        <v>-0.01475459781349729</v>
+      </c>
+      <c r="C64">
+        <v>-0.1049709038142638</v>
+      </c>
+      <c r="D64">
+        <v>0.05855584090352928</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
       <c r="A65" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B65">
-        <v>-0.002783627530779067</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2">
+        <v>-0.01718939906471779</v>
+      </c>
+      <c r="C65">
+        <v>-0.1212562344605363</v>
+      </c>
+      <c r="D65">
+        <v>0.01654661143992977</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
       <c r="A66" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B66">
-        <v>0.007236376249507912</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2">
+        <v>-0.01231176943792949</v>
+      </c>
+      <c r="C66">
+        <v>-0.159820412369208</v>
+      </c>
+      <c r="D66">
+        <v>0.111855815598439</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
       <c r="A67" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B67">
-        <v>-0.003814064389198975</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2">
+        <v>-0.01547992394339044</v>
+      </c>
+      <c r="C67">
+        <v>-0.06494180485229621</v>
+      </c>
+      <c r="D67">
+        <v>0.02997478239956112</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
       <c r="A68" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B68">
-        <v>0.006089373351568609</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2">
+        <v>-0.0003718563552146296</v>
+      </c>
+      <c r="C68">
+        <v>-0.08709693529657822</v>
+      </c>
+      <c r="D68">
+        <v>-0.2523682346812993</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
       <c r="A69" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B69">
-        <v>0.00289189301101922</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2">
+        <v>-0.00595581504956478</v>
+      </c>
+      <c r="C69">
+        <v>-0.0507308191199527</v>
+      </c>
+      <c r="D69">
+        <v>0.03994266928550833</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
       <c r="A70" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B70">
-        <v>-7.797474239293068e-05</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2">
+        <v>-0.001836216310160684</v>
+      </c>
+      <c r="C70">
+        <v>-0.002752024669009004</v>
+      </c>
+      <c r="D70">
+        <v>0.0008829658530741085</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
       <c r="A71" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B71">
-        <v>0.0002388534405050562</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2">
+        <v>-0.005562976759185776</v>
+      </c>
+      <c r="C71">
+        <v>-0.0971778234389253</v>
+      </c>
+      <c r="D71">
+        <v>-0.2992489555167642</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
       <c r="A72" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B72">
-        <v>0.0044884835357481</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2">
+        <v>-0.01539102004678587</v>
+      </c>
+      <c r="C72">
+        <v>-0.1500209781412309</v>
+      </c>
+      <c r="D72">
+        <v>0.02347188468628669</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
       <c r="A73" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B73">
-        <v>0.01214631277189059</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2">
+        <v>-0.02900662506497925</v>
+      </c>
+      <c r="C73">
+        <v>-0.2769447382841633</v>
+      </c>
+      <c r="D73">
+        <v>0.04605432639249188</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
       <c r="A74" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B74">
-        <v>0.00422377194705706</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2">
+        <v>-0.001321333208970949</v>
+      </c>
+      <c r="C74">
+        <v>-0.1053459205707992</v>
+      </c>
+      <c r="D74">
+        <v>0.03841465974452203</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4">
       <c r="A75" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B75">
-        <v>0.002033253005173395</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2">
+        <v>-0.0106325783194035</v>
+      </c>
+      <c r="C75">
+        <v>-0.1309311520087951</v>
+      </c>
+      <c r="D75">
+        <v>0.02313557092681547</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4">
       <c r="A76" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B76">
-        <v>-0.00959441774964522</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2">
+        <v>-0.021194615164169</v>
+      </c>
+      <c r="C76">
+        <v>-0.1510330458436678</v>
+      </c>
+      <c r="D76">
+        <v>0.06387134760439725</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4">
       <c r="A77" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B77">
-        <v>-0.001333213679973636</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2">
+        <v>-0.02401833984215965</v>
+      </c>
+      <c r="C77">
+        <v>-0.1326530312910298</v>
+      </c>
+      <c r="D77">
+        <v>0.05728316801110265</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4">
       <c r="A78" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B78">
-        <v>-0.0008503705617386801</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2">
+        <v>-0.01422763493744491</v>
+      </c>
+      <c r="C78">
+        <v>-0.09577384551261141</v>
+      </c>
+      <c r="D78">
+        <v>0.06731709332851274</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4">
       <c r="A79" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B79">
-        <v>-0.02482964397605915</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2">
+        <v>-0.03693504129340674</v>
+      </c>
+      <c r="C79">
+        <v>-0.157140964554643</v>
+      </c>
+      <c r="D79">
+        <v>0.03254187262264367</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4">
       <c r="A80" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B80">
-        <v>-0.004792155240815521</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2">
+        <v>-0.0104838309755734</v>
+      </c>
+      <c r="C80">
+        <v>-0.04288525883889001</v>
+      </c>
+      <c r="D80">
+        <v>0.0300559127974162</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4">
       <c r="A81" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B81">
-        <v>-0.001058674614783208</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2">
+        <v>-0.01466746468193106</v>
+      </c>
+      <c r="C81">
+        <v>-0.1283299570596571</v>
+      </c>
+      <c r="D81">
+        <v>0.04370038340710756</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4">
       <c r="A82" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B82">
-        <v>-0.005998955232394023</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2">
+        <v>-0.01951929100316394</v>
+      </c>
+      <c r="C82">
+        <v>-0.145706903979241</v>
+      </c>
+      <c r="D82">
+        <v>0.0405613914623883</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4">
       <c r="A83" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B83">
-        <v>0.008743195434002706</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2">
+        <v>-0.009969039899603493</v>
+      </c>
+      <c r="C83">
+        <v>-0.05736356717387446</v>
+      </c>
+      <c r="D83">
+        <v>0.05350010856353156</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4">
       <c r="A84" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B84">
-        <v>-0.0129191035662272</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2">
+        <v>-0.01163186383584718</v>
+      </c>
+      <c r="C84">
+        <v>-0.03843196366436655</v>
+      </c>
+      <c r="D84">
+        <v>-0.009195013759522251</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4">
       <c r="A85" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B85">
-        <v>-0.01608064186219589</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2">
+        <v>-0.02776659333939671</v>
+      </c>
+      <c r="C85">
+        <v>-0.1307493837950263</v>
+      </c>
+      <c r="D85">
+        <v>0.04545174257748228</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4">
       <c r="A86" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B86">
-        <v>0.0009442828043303544</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2">
+        <v>-0.005330381824948487</v>
+      </c>
+      <c r="C86">
+        <v>-0.04867793456401531</v>
+      </c>
+      <c r="D86">
+        <v>0.02248790050746639</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4">
       <c r="A87" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B87">
-        <v>0.004852808906531233</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2">
+        <v>-0.01025851337531743</v>
+      </c>
+      <c r="C87">
+        <v>-0.1337222703156996</v>
+      </c>
+      <c r="D87">
+        <v>0.06358540469690152</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4">
       <c r="A88" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B88">
-        <v>0.01282264273400995</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2">
+        <v>0.003090122112547773</v>
+      </c>
+      <c r="C88">
+        <v>-0.0677037045451177</v>
+      </c>
+      <c r="D88">
+        <v>0.009174858086689429</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4">
       <c r="A89" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B89">
-        <v>0.0142528629975291</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2">
+        <v>0.002056412784242157</v>
+      </c>
+      <c r="C89">
+        <v>-0.145236014549871</v>
+      </c>
+      <c r="D89">
+        <v>-0.35198363832423</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4">
       <c r="A90" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B90">
-        <v>0.002210052747676257</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2">
+        <v>-0.0065087146115923</v>
+      </c>
+      <c r="C90">
+        <v>-0.1207217566198308</v>
+      </c>
+      <c r="D90">
+        <v>-0.3232933394217092</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4">
       <c r="A91" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B91">
-        <v>-0.001331674659342919</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2">
+        <v>-0.01019092209280003</v>
+      </c>
+      <c r="C91">
+        <v>-0.1028131969508385</v>
+      </c>
+      <c r="D91">
+        <v>0.02326733236597064</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4">
       <c r="A92" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B92">
-        <v>0.008206175699137553</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2">
+        <v>-3.602900962118412e-05</v>
+      </c>
+      <c r="C92">
+        <v>-0.1339303249664206</v>
+      </c>
+      <c r="D92">
+        <v>-0.3347168041187043</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4">
       <c r="A93" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B93">
-        <v>-3.003005768021394e-06</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2">
+        <v>-0.004496809032118659</v>
+      </c>
+      <c r="C93">
+        <v>-0.1042489760407639</v>
+      </c>
+      <c r="D93">
+        <v>-0.3160727814923093</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4">
       <c r="A94" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B94">
-        <v>-0.004672044893148767</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2">
+        <v>-0.02222651002857022</v>
+      </c>
+      <c r="C94">
+        <v>-0.1541475030770374</v>
+      </c>
+      <c r="D94">
+        <v>0.0473372808024996</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4">
       <c r="A95" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B95">
-        <v>0.00457170032251243</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2">
+        <v>-0.016020934306053</v>
+      </c>
+      <c r="C95">
+        <v>-0.1273059373577985</v>
+      </c>
+      <c r="D95">
+        <v>0.06213368086280025</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4">
       <c r="A96" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:2">
+      <c r="C96">
+        <v>0</v>
+      </c>
+      <c r="D96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4">
       <c r="A97" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B97">
-        <v>0.001210581780331531</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2">
+        <v>-0.03393782346141987</v>
+      </c>
+      <c r="C97">
+        <v>-0.1917961103128347</v>
+      </c>
+      <c r="D97">
+        <v>0.005753059162036066</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4">
       <c r="A98" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B98">
-        <v>0.003592798312527782</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2">
+        <v>-0.03573371290653248</v>
+      </c>
+      <c r="C98">
+        <v>-0.2461702379913495</v>
+      </c>
+      <c r="D98">
+        <v>0.05154455597439423</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4">
       <c r="A99" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B99">
-        <v>-0.9835181659501289</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2">
+        <v>-0.9827431936295389</v>
+      </c>
+      <c r="C99">
+        <v>0.111514951786039</v>
+      </c>
+      <c r="D99">
+        <v>-0.0278454459746666</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4">
       <c r="A100" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:2">
+      <c r="C100">
+        <v>0</v>
+      </c>
+      <c r="D100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4">
       <c r="A101" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B101">
-        <v>0.0007334901312479609</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2">
+        <v>-0.003019706540489909</v>
+      </c>
+      <c r="C101">
+        <v>-0.04886616125474265</v>
+      </c>
+      <c r="D101">
+        <v>0.003551043425679492</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4">
       <c r="A102" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:2">
+      <c r="C102">
+        <v>0</v>
+      </c>
+      <c r="D102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4">
       <c r="A103" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:2">
+      <c r="C103">
+        <v>0</v>
+      </c>
+      <c r="D103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4">
       <c r="A104" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B104">
+        <v>0</v>
+      </c>
+      <c r="C104">
+        <v>0</v>
+      </c>
+      <c r="D104">
         <v>0</v>
       </c>
     </row>
